--- a/output/final_figures/RTI_Production_FigureChanges.xlsx
+++ b/output/final_figures/RTI_Production_FigureChanges.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\output\final_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDEE5B7-5CAB-46BD-95BE-408093A6E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D2572C-02B4-41F5-B407-DC814F274E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3444A95B-FB8D-404A-9DB0-0323FBBC3E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure Adjustments" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Figure Adjustments'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
   <si>
     <t>Figure</t>
   </si>
@@ -111,12 +114,6 @@
   </si>
   <si>
     <t>CO2 emissions from the electricity sector in the U.S., compared to economy-wide co2 emissions, 2005-2021</t>
-  </si>
-  <si>
-    <t>U.S. electricity generation shares by fuel type, 2005-2021</t>
-  </si>
-  <si>
-    <t>U.S. electricity sector generation by technology (TWh), 2021, 2030, and 2035</t>
   </si>
   <si>
     <t>*Remove the 2030 and 2035 labels on the first panel, the one with the "2021" label on the bottom. Label this 2021 on top where the 2030 and 2035 labels used to be. Remove the empty panel on the bottom and shift the axis over to the first panel (RIO-REPEAT) on the bottom. 
@@ -130,9 +127,6 @@
 *move the "Additions" and "Retirements" labels and arrows outside of the boundary of the figure and enlarge to the appropriate size</t>
   </si>
   <si>
-    <t>Sensitivity of electric sector emissions to IRA implementation (multiple models) and natural gas prices, technology cost, and constrained deployment (ReEDS-only)</t>
-  </si>
-  <si>
     <t>Electric sector co2 emissions changes (percentage points of 2005 emissions) relative to the IRA moderate scenario</t>
   </si>
   <si>
@@ -617,20 +611,31 @@
       </rPr>
       <t xml:space="preserve"> combustion and indirect emissions</t>
     </r>
+  </si>
+  <si>
+    <t>Production team to reproduce. Data in body of report</t>
+  </si>
+  <si>
+    <t>Electricity generation shares by fuel type, 2005-2021</t>
+  </si>
+  <si>
+    <t>Electric sector co2 emissions</t>
+  </si>
+  <si>
+    <t>Electric sector generation by technology (TWh), 2021, 2030, and 2035</t>
+  </si>
+  <si>
+    <t>Sensitivity of electric sector emissions to IRA implementation (multiple models) and natural gas prices, technology cost, and constrained deployment</t>
+  </si>
+  <si>
+    <t>Remove "(ReEDS only)" from the caption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,10 +698,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1018,16 +1023,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F321216C-D9F8-41DE-8441-52DBC85B5BB4}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="23" style="1"/>
   </cols>
   <sheetData>
@@ -1047,56 +1052,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B3" s="4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
+      <c r="B4" s="4">
+        <v>1.2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,41 +1111,39 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4">
         <v>1.3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,261 +1151,265 @@
         <v>0</v>
       </c>
       <c r="B9" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B14" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1408,78 +1417,78 @@
         <v>0</v>
       </c>
       <c r="B29" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="4">
-        <v>5.2</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4">
-        <v>5.3</v>
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>5.4</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>43</v>
@@ -1490,97 +1499,97 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1591,66 +1600,64 @@
         <v>58</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1672,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1686,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1700,13 +1707,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1714,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -1726,41 +1733,41 @@
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,16 +1775,21 @@
         <v>7</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{F321216C-D9F8-41DE-8441-52DBC85B5BB4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output/final_figures/RTI_Production_FigureChanges.xlsx
+++ b/output/final_figures/RTI_Production_FigureChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\output\final_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D2572C-02B4-41F5-B407-DC814F274E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C374DE-B391-4F98-A0B6-C72C90CA5E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3444A95B-FB8D-404A-9DB0-0323FBBC3E52}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>Figure</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>Remove "(ReEDS only)" from the caption</t>
+  </si>
+  <si>
+    <t>Change figure title to "CO2 emissions from the electric sector, by fiel, compared to economy-wide co2 emissions, 2005-2021 --&gt; to match similar figures</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F321216C-D9F8-41DE-8441-52DBC85B5BB4}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1199,9 @@
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1674,7 +1679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>

--- a/output/final_figures/RTI_Production_FigureChanges.xlsx
+++ b/output/final_figures/RTI_Production_FigureChanges.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\output\final_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C374DE-B391-4F98-A0B6-C72C90CA5E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEF5FB-A64E-4188-B110-B2EF4CFD1600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3444A95B-FB8D-404A-9DB0-0323FBBC3E52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3444A95B-FB8D-404A-9DB0-0323FBBC3E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure Adjustments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Figure Adjustments'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Figure Adjustments'!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>Figure</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Production team to reproduce. File = </t>
-  </si>
-  <si>
-    <t>Production team to reproduce</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add hashes for all "Indirect" variables and make the same background color as the "Direct" version of the variable (e.g. "Buildings: Indirect" should have hashes and be the same color as "Buildings: Direct") </t>
   </si>
   <si>
-    <t xml:space="preserve">Same table as Table ES.1 Production team to reproduce. File = </t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
   </si>
   <si>
     <t>Economy-wide co2 emissions sensitivities</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Economy-wide co2 emissions changes (percentage points of 2005 emissions) relative to the IRA moderate scenario</t>
@@ -155,18 +143,12 @@
 *add hashes to the "Other Light Industry" and "Food Processing" bar segments and add legend to distinguish between "Heavy Industry" = No Hash and "Light Industry" = crosshatching</t>
   </si>
   <si>
-    <t xml:space="preserve">U.S. industry carbon capture and sequestration.  </t>
-  </si>
-  <si>
     <t>A.1.1-A.5.4</t>
   </si>
   <si>
     <t>All Appendix A tables</t>
   </si>
   <si>
-    <t xml:space="preserve">Production team to reproduce. Remove the titles on the top of the current version of the tables and just keep the text titles. Files = </t>
-  </si>
-  <si>
     <t>B.1</t>
   </si>
   <si>
@@ -257,9 +239,6 @@
     <t>Indirect and direct emissions breakouts</t>
   </si>
   <si>
-    <t>No Edits</t>
-  </si>
-  <si>
     <t>F.3.1</t>
   </si>
   <si>
@@ -416,13 +395,13 @@
   </si>
   <si>
     <r>
-      <t>Total CO</t>
+      <t>CO</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -432,12 +411,33 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> emissions in the transportation sector. </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emissions from the buildings sector in the U.S., compared to economy-wide CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emissions, 2005-2021</t>
     </r>
   </si>
   <si>
@@ -463,7 +463,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> emissions from the buildings sector in the U.S., compared to economy-wide CO</t>
+      <t xml:space="preserve"> emissions from the industrial sector in the U.S., compared to economy-wide CO</t>
     </r>
     <r>
       <rPr>
@@ -489,13 +489,13 @@
   </si>
   <si>
     <r>
-      <t>Buildings total CO</t>
+      <t>Industry CO</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -505,7 +505,55 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emissions (direct + indirect) by sub-sector, excluding process emissions</t>
+    </r>
+  </si>
+  <si>
+    <t>Production team to reproduce. Data in body of report</t>
+  </si>
+  <si>
+    <t>Electricity generation shares by fuel type, 2005-2021</t>
+  </si>
+  <si>
+    <t>Electric sector co2 emissions</t>
+  </si>
+  <si>
+    <t>Electric sector generation by technology (TWh), 2021, 2030, and 2035</t>
+  </si>
+  <si>
+    <t>Sensitivity of electric sector emissions to IRA implementation (multiple models) and natural gas prices, technology cost, and constrained deployment</t>
+  </si>
+  <si>
+    <t>Remove "(ReEDS only)" from the caption</t>
+  </si>
+  <si>
+    <t>Change figure title to "CO2 emissions from the electric sector, by fiel, compared to economy-wide co2 emissions, 2005-2021 --&gt; to match similar figures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry carbon capture and sequestration.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Transportation sector CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -515,13 +563,12 @@
   </si>
   <si>
     <r>
-      <t>CO</t>
+      <t>Buildings sector CO</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -531,12 +578,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> emissions from the industrial sector in the U.S., compared to economy-wide CO</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> emissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>industrial sector combustion and indirect CO</t>
     </r>
     <r>
       <rPr>
@@ -557,81 +608,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> emissions, 2005-2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Industry CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> emissions (direct + indirect) by sub-sector, excluding process emissions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>U.S. industrial CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> combustion and indirect emissions</t>
-    </r>
-  </si>
-  <si>
-    <t>Production team to reproduce. Data in body of report</t>
-  </si>
-  <si>
-    <t>Electricity generation shares by fuel type, 2005-2021</t>
-  </si>
-  <si>
-    <t>Electric sector co2 emissions</t>
-  </si>
-  <si>
-    <t>Electric sector generation by technology (TWh), 2021, 2030, and 2035</t>
-  </si>
-  <si>
-    <t>Sensitivity of electric sector emissions to IRA implementation (multiple models) and natural gas prices, technology cost, and constrained deployment</t>
-  </si>
-  <si>
-    <t>Remove "(ReEDS only)" from the caption</t>
-  </si>
-  <si>
-    <t>Change figure title to "CO2 emissions from the electric sector, by fiel, compared to economy-wide co2 emissions, 2005-2021 --&gt; to match similar figures</t>
+      <t xml:space="preserve"> emissions</t>
+    </r>
+  </si>
+  <si>
+    <t>Production team to reproduce. Move text from legend (e.g. included, not included, na) into the box for 508 compliance (or create a key with *, +, etc..) File = STILL NEED TO SEND TO RTI</t>
+  </si>
+  <si>
+    <t>Production team to reproduce. File = display_tables/Table2.1_percent_2005.html</t>
+  </si>
+  <si>
+    <t>Production team to reproduce. File = display_tables/Table1.5_percent_2005.html</t>
+  </si>
+  <si>
+    <t>Production team to reproduce. Remove the titles on the top of the current version of the tables and just keep the text titles. Files = display_tables/TableA Economy-Wide/Power Sector/Transportation/Buildings/Industry 1/2/3/4</t>
+  </si>
+  <si>
+    <t>Production team to reproduce. File = data/TableES.1.summary_ranges_summary_FORMATTED.csv</t>
+  </si>
+  <si>
+    <t>Same table as Table ES.1 Production team to reproduce. File = Table1.3.summary_ranges_summary_FORMATTED.csv</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -670,7 +669,6 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1027,7 +1025,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,80 +1045,80 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.1000000000000001</v>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.2</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1128,65 +1126,69 @@
         <v>0</v>
       </c>
       <c r="B7" s="4">
-        <v>1.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1197,118 +1199,122 @@
         <v>2.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>4.2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1316,105 +1322,111 @@
         <v>0</v>
       </c>
       <c r="B21" s="4">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4">
-        <v>3.3</v>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4">
-        <v>3.4</v>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4">
-        <v>4.0999999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>2.7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1422,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="4">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,193 +1448,195 @@
         <v>0</v>
       </c>
       <c r="B30" s="4">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5.4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>48</v>
+      <c r="B36" s="4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1.5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,121 +1644,125 @@
         <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1752,47 +1770,47 @@
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>85</v>
+      <c r="B55" s="4">
+        <v>1.4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{F321216C-D9F8-41DE-8441-52DBC85B5BB4}">
+  <autoFilter ref="A1:D55" xr:uid="{F321216C-D9F8-41DE-8441-52DBC85B5BB4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="D1:D55"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
